--- a/5/6/Stock de instrumentos de deuda del BCCh en circulación 1995 a 2021 - Mensual.xlsx
+++ b/5/6/Stock de instrumentos de deuda del BCCh en circulación 1995 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="334">
   <si>
     <t>Serie</t>
   </si>
@@ -1013,6 +1013,9 @@
   </si>
   <si>
     <t>01-07-2021</t>
+  </si>
+  <si>
+    <t>01-08-2021</t>
   </si>
 </sst>
 </file>
@@ -1370,7 +1373,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N320"/>
+  <dimension ref="A1:N321"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -9909,7 +9912,7 @@
         <v>332</v>
       </c>
       <c r="B320">
-        <v>33000000</v>
+        <v>39709000</v>
       </c>
       <c r="C320">
         <v>167600</v>
@@ -9921,6 +9924,26 @@
         <v>118</v>
       </c>
       <c r="G320">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="321" spans="1:7">
+      <c r="A321" t="s">
+        <v>333</v>
+      </c>
+      <c r="B321">
+        <v>38663000</v>
+      </c>
+      <c r="C321">
+        <v>167600</v>
+      </c>
+      <c r="E321">
+        <v>13050</v>
+      </c>
+      <c r="F321">
+        <v>101</v>
+      </c>
+      <c r="G321">
         <v>21</v>
       </c>
     </row>

--- a/5/6/Stock de instrumentos de deuda del BCCh en circulación 1995 a 2021 - Mensual.xlsx
+++ b/5/6/Stock de instrumentos de deuda del BCCh en circulación 1995 a 2021 - Mensual.xlsx
@@ -9932,7 +9932,7 @@
         <v>333</v>
       </c>
       <c r="B321">
-        <v>38663000</v>
+        <v>34619000</v>
       </c>
       <c r="C321">
         <v>167600</v>

--- a/5/6/Stock de instrumentos de deuda del BCCh en circulación 1995 a 2021 - Mensual.xlsx
+++ b/5/6/Stock de instrumentos de deuda del BCCh en circulación 1995 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="335">
   <si>
     <t>Serie</t>
   </si>
@@ -1016,6 +1016,9 @@
   </si>
   <si>
     <t>01-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
   </si>
 </sst>
 </file>
@@ -1373,7 +1376,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N321"/>
+  <dimension ref="A1:N322"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -9947,6 +9950,26 @@
         <v>21</v>
       </c>
     </row>
+    <row r="322" spans="1:7">
+      <c r="A322" t="s">
+        <v>334</v>
+      </c>
+      <c r="B322">
+        <v>42614000</v>
+      </c>
+      <c r="C322">
+        <v>167600</v>
+      </c>
+      <c r="E322">
+        <v>13050</v>
+      </c>
+      <c r="F322">
+        <v>79</v>
+      </c>
+      <c r="G322">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5/6/Stock de instrumentos de deuda del BCCh en circulación 1995 a 2021 - Mensual.xlsx
+++ b/5/6/Stock de instrumentos de deuda del BCCh en circulación 1995 a 2021 - Mensual.xlsx
@@ -9955,7 +9955,7 @@
         <v>334</v>
       </c>
       <c r="B322">
-        <v>42614000</v>
+        <v>38808000</v>
       </c>
       <c r="C322">
         <v>167600</v>

--- a/5/6/Stock de instrumentos de deuda del BCCh en circulación 1995 a 2021 - Mensual.xlsx
+++ b/5/6/Stock de instrumentos de deuda del BCCh en circulación 1995 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="336">
   <si>
     <t>Serie</t>
   </si>
@@ -1019,6 +1019,9 @@
   </si>
   <si>
     <t>01-09-2021</t>
+  </si>
+  <si>
+    <t>01-10-2021</t>
   </si>
 </sst>
 </file>
@@ -1376,7 +1379,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N322"/>
+  <dimension ref="A1:N323"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -9970,6 +9973,26 @@
         <v>12</v>
       </c>
     </row>
+    <row r="323" spans="1:7">
+      <c r="A323" t="s">
+        <v>335</v>
+      </c>
+      <c r="B323">
+        <v>35198000</v>
+      </c>
+      <c r="C323">
+        <v>167600</v>
+      </c>
+      <c r="E323">
+        <v>13050</v>
+      </c>
+      <c r="F323">
+        <v>76</v>
+      </c>
+      <c r="G323">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
